--- a/data/travel_model_1.xlsx
+++ b/data/travel_model_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinhht/ai_projects/survey_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A80017F-3753-E644-A69C-FF0F5CCCCFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EA5838-72C7-A749-8AA6-061025A19281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1580" windowWidth="24720" windowHeight="13260" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,10 @@
     <sheet name="Observable_Variables" sheetId="2" r:id="rId2"/>
     <sheet name="Construct_Variables" sheetId="3" r:id="rId3"/>
     <sheet name="Dependent_Variables" sheetId="4" r:id="rId4"/>
-    <sheet name="VarCovar_Relations" sheetId="5" r:id="rId5"/>
-    <sheet name="Parameters" sheetId="6" r:id="rId6"/>
-    <sheet name="Ref" sheetId="8" r:id="rId7"/>
+    <sheet name="Relations" sheetId="9" r:id="rId5"/>
+    <sheet name="VarCovar_Relations" sheetId="5" r:id="rId6"/>
+    <sheet name="Parameters" sheetId="6" r:id="rId7"/>
+    <sheet name="Ref" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Variable</t>
   </si>
@@ -165,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +196,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -279,10 +296,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,9 +348,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7EE78031-F166-7140-9F3E-71B9B9BCB695}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8690,7 +8720,7 @@
   <dimension ref="A1:E999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9727,7 +9757,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13766,10 +13796,54 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B366C5-C780-5840-85AA-518EF4529301}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" style="21" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -14778,7 +14852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
@@ -15844,12 +15918,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7880A9-1B1D-8648-9017-75BE5719D4FA}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15860,11 +15934,14 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="24" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{08FBEE14-61CF-0E44-BC17-2BFC495675ED}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>